--- a/Clase_3_datos/Finanzas.xlsx
+++ b/Clase_3_datos/Finanzas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtonis\Documents\GitHub\Curso-Python\Clase_3_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADD6BAF-A774-44D3-BA93-C38265324BC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{345F6538-AF13-4C98-8426-B2D4314E390C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11385" xr2:uid="{1CCB0378-1F3C-48C5-BACF-6AEA9AC41D5E}"/>
   </bookViews>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED49648-6507-4BC8-BCD7-5E6FE7B0650F}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,102 +444,102 @@
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
       <c r="C3">
+        <v>23432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>65444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>76533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>34521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>43</v>
       </c>
-      <c r="D3">
-        <v>43433</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>23432</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>65444</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>76533</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7">
-        <v>65</v>
-      </c>
-      <c r="D7">
-        <v>34521</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
+        <v>23422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>43</v>
-      </c>
-      <c r="D8">
-        <v>23422</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
+        <v>34534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>34534</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
         <v>23423</v>
       </c>
     </row>
@@ -550,10 +550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246B6FAE-AC45-401F-AF77-5648FD6C54E0}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,101 +561,101 @@
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>220</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>43434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>12423</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>234223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>43434</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>12423</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>234223</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
+      <c r="C7">
         <v>23323</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Clase_3_datos/Finanzas.xlsx
+++ b/Clase_3_datos/Finanzas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtonis\Documents\GitHub\Curso-Python\Clase_3_datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{345F6538-AF13-4C98-8426-B2D4314E390C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F60BF6D-A956-4259-9D69-80E33515515B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11385" xr2:uid="{1CCB0378-1F3C-48C5-BACF-6AEA9AC41D5E}"/>
   </bookViews>
@@ -436,11 +436,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
